--- a/mysite/web/download_excel/员工忠诚度调查3-百分比.xlsx
+++ b/mysite/web/download_excel/员工忠诚度调查3-百分比.xlsx
@@ -478,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -504,10 +504,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -591,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -608,10 +608,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>33.33</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -669,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -686,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -712,13 +712,13 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -738,7 +738,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -790,10 +790,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -816,13 +816,13 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -842,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -868,7 +868,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -894,7 +894,7 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>33.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -920,10 +920,10 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -946,10 +946,10 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -972,7 +972,7 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>66.67</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
